--- a/biology/Botanique/Balsamocitrus_camerunensis/Balsamocitrus_camerunensis.xlsx
+++ b/biology/Botanique/Balsamocitrus_camerunensis/Balsamocitrus_camerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balsamocitrus camerunensis Letouzey [2] est une espèce d'arbre de la famille des Rutaceae selon la classification phylogénétique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balsamocitrus camerunensis Letouzey  est une espèce d'arbre de la famille des Rutaceae selon la classification phylogénétique. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre, ou buisson sarmenteux, peut mesurer environ 5 mètres de hauteur pour un tronc de 10 à 15 cm de diamètre. Ses rameaux en zigzag sont rougeâtres et possèdent des épines souvent disposées par paire. Les jeunes rameaux sont légèrement pileux. Ses feuilles sont simples ou parfois bi ou tri-foliolées. Les folioles sont composées de sept à huit paires de veines latérales. 
-Cette espèce d'Afrique tropicale se développe dans les sous-étages des forêts tropicales humides sempervirentes ou de montagne [3]. 
+Cette espèce d'Afrique tropicale se développe dans les sous-étages des forêts tropicales humides sempervirentes ou de montagne . 
 </t>
         </is>
       </c>
